--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Teaching-HEIGVD-CM_WEBS-2015-Labo-Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -91,13 +96,82 @@
   </si>
   <si>
     <t>Delete a user specified by its id</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>/issues</t>
+  </si>
+  <si>
+    <t>Create a new issue</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issues</t>
+  </si>
+  <si>
+    <t>Update an issue</t>
+  </si>
+  <si>
+    <t>/issues/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve an issue specified by its id</t>
+  </si>
+  <si>
+    <t>IssueType</t>
+  </si>
+  <si>
+    <t>/issueType</t>
+  </si>
+  <si>
+    <t>/issueType/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve a type of issue specified by its id</t>
+  </si>
+  <si>
+    <t>Update a type of issue</t>
+  </si>
+  <si>
+    <t>Delete a type of issue</t>
+  </si>
+  <si>
+    <t>Create a type of issue</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Create a comment</t>
+  </si>
+  <si>
+    <t>/action/comment</t>
+  </si>
+  <si>
+    <t>/action/comment/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve a comment specified by its id</t>
+  </si>
+  <si>
+    <t>Update a comment</t>
+  </si>
+  <si>
+    <t>Delete a comment</t>
+  </si>
+  <si>
+    <t>Update the status of an issue specified by its id</t>
+  </si>
+  <si>
+    <t>/action/status/{issueId}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,13 +209,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -250,6 +340,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -258,48 +366,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -312,6 +516,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -637,170 +849,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1048576" spans="5:5">
-      <c r="E1048576" s="1"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1048576" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="17">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -812,9 +1251,9 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
